--- a/ASMAS/bin/data/class_student.xlsx
+++ b/ASMAS/bin/data/class_student.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B473"/>
+  <dimension ref="A1:B476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,7 +410,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>122</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>123</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>124</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>127</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>131</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>132</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>133</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>134</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>135</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>136</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>137</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>138</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>139</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>140</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>141</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B35">
-        <v>142</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>143</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>144</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>145</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>146</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>147</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>148</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>149</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>150</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>151</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>152</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>153</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>154</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>156</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>157</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>159</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>161</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>162</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B56">
-        <v>163</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>164</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>165</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>166</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <v>167</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>168</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <v>169</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <v>170</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <v>171</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>172</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>173</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B67">
-        <v>174</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>175</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="B69">
-        <v>176</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <v>177</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>178</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>179</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>180</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>181</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>182</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="B76">
-        <v>183</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B77">
-        <v>184</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <v>185</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>186</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B80">
-        <v>187</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>188</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>189</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>190</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="B84">
-        <v>191</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>192</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B86">
-        <v>193</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B87">
-        <v>194</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="B88">
-        <v>195</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="B89">
-        <v>196</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="B90">
-        <v>197</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B91">
-        <v>198</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="B92">
-        <v>199</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="B93">
-        <v>200</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="B94">
-        <v>201</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B95">
-        <v>202</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="B96">
-        <v>203</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>204</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B98">
-        <v>205</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B99">
-        <v>206</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B100">
-        <v>207</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B101">
-        <v>208</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="B102">
-        <v>209</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B103">
-        <v>210</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B104">
-        <v>211</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B105">
-        <v>212</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B106">
-        <v>213</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B107">
-        <v>214</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="B108">
-        <v>215</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B109">
-        <v>216</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="B110">
-        <v>217</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B111">
-        <v>218</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>13</v>
       </c>
       <c r="B112">
-        <v>219</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="B113">
-        <v>220</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>221</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B115">
-        <v>222</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="B116">
-        <v>223</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="B117">
-        <v>224</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="B118">
-        <v>225</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="B119">
-        <v>226</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="B120">
-        <v>227</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="B121">
-        <v>228</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="B122">
-        <v>229</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="B123">
-        <v>230</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="B124">
-        <v>231</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>13</v>
       </c>
       <c r="B125">
-        <v>232</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="B126">
-        <v>233</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B127">
-        <v>234</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>13</v>
       </c>
       <c r="B128">
-        <v>235</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B129">
-        <v>236</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="B130">
-        <v>237</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="B131">
-        <v>238</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="B132">
-        <v>239</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="B133">
-        <v>240</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>241</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>242</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B136">
-        <v>243</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>244</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="B138">
-        <v>245</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B139">
-        <v>246</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="B140">
-        <v>247</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>248</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>249</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>250</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>251</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B145">
-        <v>252</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>253</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>254</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>255</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="B149">
-        <v>256</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="B150">
-        <v>257</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="B151">
-        <v>258</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="B152">
-        <v>259</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="B153">
-        <v>260</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="B154">
-        <v>261</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="B155">
-        <v>262</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="B156">
-        <v>263</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="B157">
-        <v>264</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B158">
-        <v>265</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>14</v>
       </c>
       <c r="B159">
-        <v>266</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="B160">
-        <v>267</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="B161">
-        <v>268</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="B162">
-        <v>269</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B163">
-        <v>270</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="B164">
-        <v>271</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="B165">
-        <v>272</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B166">
-        <v>273</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="B167">
-        <v>274</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="B168">
-        <v>275</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="B169">
-        <v>276</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="B170">
-        <v>277</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="B171">
-        <v>278</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
       <c r="B172">
-        <v>279</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="B173">
-        <v>280</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="B174">
-        <v>281</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B175">
-        <v>282</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="B176">
-        <v>283</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="B177">
-        <v>284</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="B178">
-        <v>285</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>15</v>
       </c>
       <c r="B179">
-        <v>286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="B180">
-        <v>287</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="B181">
-        <v>288</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="B182">
-        <v>289</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="B183">
-        <v>290</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="B184">
-        <v>291</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="B185">
-        <v>292</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="B186">
-        <v>293</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="B187">
-        <v>294</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B188">
-        <v>295</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="B189">
-        <v>296</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="B190">
-        <v>297</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="B191">
-        <v>298</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="B192">
-        <v>299</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B193">
-        <v>300</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="B194">
-        <v>301</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B195">
-        <v>302</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B196">
-        <v>303</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>15</v>
       </c>
       <c r="B197">
-        <v>304</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B198">
-        <v>305</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B199">
-        <v>306</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="B200">
-        <v>307</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="B201">
-        <v>308</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>15</v>
       </c>
       <c r="B202">
-        <v>309</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="B203">
-        <v>310</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>15</v>
       </c>
       <c r="B204">
-        <v>311</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="B205">
-        <v>312</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="B206">
-        <v>313</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="B207">
-        <v>314</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="B208">
-        <v>315</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="B209">
-        <v>316</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B210">
-        <v>317</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="B211">
-        <v>318</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>15</v>
       </c>
       <c r="B212">
-        <v>319</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="B213">
-        <v>320</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="B214">
-        <v>321</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="B215">
-        <v>322</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="B216">
-        <v>323</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="B217">
-        <v>324</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="B218">
-        <v>325</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B219">
-        <v>326</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="B220">
-        <v>327</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="B221">
-        <v>328</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>17</v>
       </c>
       <c r="B222">
-        <v>329</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="B223">
-        <v>330</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="B224">
-        <v>331</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="B225">
-        <v>332</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="B226">
-        <v>333</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>17</v>
       </c>
       <c r="B227">
-        <v>334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>17</v>
       </c>
       <c r="B228">
-        <v>335</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>17</v>
       </c>
       <c r="B229">
-        <v>336</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="B230">
-        <v>337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>17</v>
       </c>
       <c r="B231">
-        <v>338</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>17</v>
       </c>
       <c r="B232">
-        <v>339</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="B233">
-        <v>340</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="B234">
-        <v>341</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="B235">
-        <v>342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>16</v>
       </c>
       <c r="B236">
-        <v>343</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="B237">
-        <v>344</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="B238">
-        <v>345</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="B239">
-        <v>346</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="B240">
-        <v>347</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>16</v>
       </c>
       <c r="B241">
-        <v>348</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="B242">
-        <v>349</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="B243">
-        <v>350</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="B244">
-        <v>351</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="B245">
-        <v>352</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="B246">
-        <v>353</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="B247">
-        <v>354</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="B248">
-        <v>355</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>16</v>
       </c>
       <c r="B249">
-        <v>356</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="B250">
-        <v>357</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="B251">
-        <v>358</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="B252">
-        <v>359</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="B253">
-        <v>360</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="B254">
-        <v>361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="B255">
-        <v>362</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="B256">
-        <v>363</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="B257">
-        <v>364</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>18</v>
       </c>
       <c r="B258">
-        <v>365</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="B259">
-        <v>366</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B260">
-        <v>367</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="B261">
-        <v>368</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="B262">
-        <v>369</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>18</v>
       </c>
       <c r="B263">
-        <v>370</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2498,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="B264">
-        <v>371</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>18</v>
       </c>
       <c r="B265">
-        <v>372</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="B266">
-        <v>373</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="B267">
-        <v>374</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>18</v>
       </c>
       <c r="B268">
-        <v>375</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="B269">
-        <v>376</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>18</v>
       </c>
       <c r="B270">
-        <v>377</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="B271">
-        <v>378</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>18</v>
       </c>
       <c r="B272">
-        <v>379</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>18</v>
       </c>
       <c r="B273">
-        <v>380</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="B274">
-        <v>381</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>18</v>
       </c>
       <c r="B275">
-        <v>382</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2594,7 @@
         <v>18</v>
       </c>
       <c r="B276">
-        <v>383</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="B277">
-        <v>384</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>18</v>
       </c>
       <c r="B278">
-        <v>385</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="B279">
-        <v>386</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>18</v>
       </c>
       <c r="B280">
-        <v>387</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>18</v>
       </c>
       <c r="B281">
-        <v>388</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2642,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="B282">
-        <v>389</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="B283">
-        <v>390</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="B284">
-        <v>391</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="B285">
-        <v>392</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="B286">
-        <v>393</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
         <v>18</v>
       </c>
       <c r="B287">
-        <v>394</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>18</v>
       </c>
       <c r="B288">
-        <v>395</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="B289">
-        <v>396</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="B290">
-        <v>397</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>24</v>
       </c>
       <c r="B291">
-        <v>398</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="B292">
-        <v>399</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>24</v>
       </c>
       <c r="B293">
-        <v>400</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>24</v>
       </c>
       <c r="B294">
-        <v>401</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B295">
-        <v>402</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>24</v>
       </c>
       <c r="B296">
-        <v>403</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +2762,7 @@
         <v>24</v>
       </c>
       <c r="B297">
-        <v>404</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B298">
-        <v>405</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>24</v>
       </c>
       <c r="B299">
-        <v>406</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="B300">
-        <v>407</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="B301">
-        <v>408</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>24</v>
       </c>
       <c r="B302">
-        <v>409</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>24</v>
       </c>
       <c r="B303">
-        <v>410</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>24</v>
       </c>
       <c r="B304">
-        <v>411</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>24</v>
       </c>
       <c r="B305">
-        <v>412</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="B306">
-        <v>413</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
         <v>24</v>
       </c>
       <c r="B307">
-        <v>414</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>24</v>
       </c>
       <c r="B308">
-        <v>415</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>24</v>
       </c>
       <c r="B309">
-        <v>416</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="B310">
-        <v>417</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>24</v>
       </c>
       <c r="B311">
-        <v>418</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>24</v>
       </c>
       <c r="B312">
-        <v>419</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="B313">
-        <v>420</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>19</v>
       </c>
       <c r="B314">
-        <v>421</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>19</v>
       </c>
       <c r="B315">
-        <v>422</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B316">
-        <v>423</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="B317">
-        <v>424</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="B318">
-        <v>425</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="B319">
-        <v>426</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>427</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="B321">
-        <v>428</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="B322">
-        <v>429</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="B323">
-        <v>430</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="B324">
-        <v>431</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>19</v>
       </c>
       <c r="B325">
-        <v>432</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="B326">
-        <v>433</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="B327">
-        <v>434</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="B328">
-        <v>435</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B329">
-        <v>436</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="B330">
-        <v>437</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>19</v>
       </c>
       <c r="B331">
-        <v>438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>19</v>
       </c>
       <c r="B332">
-        <v>439</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="B333">
-        <v>440</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="B334">
-        <v>441</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>20</v>
       </c>
       <c r="B335">
-        <v>442</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="B336">
-        <v>443</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="B337">
-        <v>444</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="B338">
-        <v>445</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="B339">
-        <v>446</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>20</v>
       </c>
       <c r="B340">
-        <v>447</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="B341">
-        <v>448</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>20</v>
       </c>
       <c r="B342">
-        <v>449</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="B343">
-        <v>450</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="B344">
-        <v>451</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3146,7 @@
         <v>20</v>
       </c>
       <c r="B345">
-        <v>452</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="B346">
-        <v>453</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>20</v>
       </c>
       <c r="B347">
-        <v>454</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B348">
-        <v>455</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="B349">
-        <v>456</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>20</v>
       </c>
       <c r="B350">
-        <v>457</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>20</v>
       </c>
       <c r="B351">
-        <v>458</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>20</v>
       </c>
       <c r="B352">
-        <v>459</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="B353">
-        <v>460</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="B354">
-        <v>461</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="B355">
-        <v>462</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>23</v>
       </c>
       <c r="B356">
-        <v>463</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3242,7 +3242,7 @@
         <v>23</v>
       </c>
       <c r="B357">
-        <v>464</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>23</v>
       </c>
       <c r="B358">
-        <v>465</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="B359">
-        <v>466</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>23</v>
       </c>
       <c r="B360">
-        <v>467</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>23</v>
       </c>
       <c r="B361">
-        <v>468</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>23</v>
       </c>
       <c r="B362">
-        <v>469</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>23</v>
       </c>
       <c r="B363">
-        <v>470</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>23</v>
       </c>
       <c r="B364">
-        <v>471</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>23</v>
       </c>
       <c r="B365">
-        <v>472</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="B366">
-        <v>473</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>23</v>
       </c>
       <c r="B367">
-        <v>474</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="B368">
-        <v>475</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>23</v>
       </c>
       <c r="B369">
-        <v>476</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
         <v>23</v>
       </c>
       <c r="B370">
-        <v>477</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="B371">
-        <v>478</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="B372">
-        <v>479</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="B373">
-        <v>480</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>23</v>
       </c>
       <c r="B374">
-        <v>481</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="B375">
-        <v>482</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>23</v>
       </c>
       <c r="B376">
-        <v>483</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>23</v>
       </c>
       <c r="B377">
-        <v>484</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>23</v>
       </c>
       <c r="B378">
-        <v>485</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>23</v>
       </c>
       <c r="B379">
-        <v>486</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>23</v>
       </c>
       <c r="B380">
-        <v>487</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="B381">
-        <v>488</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="B382">
-        <v>489</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>23</v>
       </c>
       <c r="B383">
-        <v>490</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>23</v>
       </c>
       <c r="B384">
-        <v>491</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>23</v>
       </c>
       <c r="B385">
-        <v>492</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>23</v>
       </c>
       <c r="B386">
-        <v>493</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
         <v>23</v>
       </c>
       <c r="B387">
-        <v>494</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>23</v>
       </c>
       <c r="B388">
-        <v>495</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3498,7 @@
         <v>23</v>
       </c>
       <c r="B389">
-        <v>496</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>23</v>
       </c>
       <c r="B390">
-        <v>497</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="B391">
-        <v>498</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>23</v>
       </c>
       <c r="B392">
-        <v>499</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>23</v>
       </c>
       <c r="B393">
-        <v>500</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="B394">
-        <v>501</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>23</v>
       </c>
       <c r="B395">
-        <v>502</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>23</v>
       </c>
       <c r="B396">
-        <v>503</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="B397">
-        <v>504</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="B398">
-        <v>505</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>23</v>
       </c>
       <c r="B399">
-        <v>506</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="B400">
-        <v>507</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
         <v>23</v>
       </c>
       <c r="B401">
-        <v>508</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>23</v>
       </c>
       <c r="B402">
-        <v>509</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
         <v>23</v>
       </c>
       <c r="B403">
-        <v>510</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="B404">
-        <v>511</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3626,7 +3626,7 @@
         <v>23</v>
       </c>
       <c r="B405">
-        <v>512</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="B406">
-        <v>513</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="B407">
-        <v>514</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
         <v>22</v>
       </c>
       <c r="B408">
-        <v>515</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>22</v>
       </c>
       <c r="B409">
-        <v>516</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
         <v>22</v>
       </c>
       <c r="B410">
-        <v>517</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>22</v>
       </c>
       <c r="B411">
-        <v>518</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
         <v>22</v>
       </c>
       <c r="B412">
-        <v>519</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>22</v>
       </c>
       <c r="B413">
-        <v>520</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="B414">
-        <v>521</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>22</v>
       </c>
       <c r="B415">
-        <v>522</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
         <v>22</v>
       </c>
       <c r="B416">
-        <v>523</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="B417">
-        <v>524</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +3730,7 @@
         <v>22</v>
       </c>
       <c r="B418">
-        <v>525</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="B419">
-        <v>526</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>22</v>
       </c>
       <c r="B420">
-        <v>527</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
         <v>22</v>
       </c>
       <c r="B421">
-        <v>528</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
         <v>22</v>
       </c>
       <c r="B422">
-        <v>529</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
         <v>22</v>
       </c>
       <c r="B423">
-        <v>530</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>22</v>
       </c>
       <c r="B424">
-        <v>531</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
         <v>22</v>
       </c>
       <c r="B425">
-        <v>532</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>22</v>
       </c>
       <c r="B426">
-        <v>533</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B427">
-        <v>534</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="B428">
-        <v>535</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>22</v>
       </c>
       <c r="B429">
-        <v>536</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>22</v>
       </c>
       <c r="B430">
-        <v>537</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>22</v>
       </c>
       <c r="B431">
-        <v>538</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
         <v>22</v>
       </c>
       <c r="B432">
-        <v>539</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>22</v>
       </c>
       <c r="B433">
-        <v>540</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>22</v>
       </c>
       <c r="B434">
-        <v>541</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
         <v>22</v>
       </c>
       <c r="B435">
-        <v>542</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>22</v>
       </c>
       <c r="B436">
-        <v>543</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="B437">
-        <v>544</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>22</v>
       </c>
       <c r="B438">
-        <v>545</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>22</v>
       </c>
       <c r="B439">
-        <v>546</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>22</v>
       </c>
       <c r="B440">
-        <v>547</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="B441">
-        <v>548</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>21</v>
       </c>
       <c r="B442">
-        <v>549</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,7 @@
         <v>21</v>
       </c>
       <c r="B443">
-        <v>550</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="B444">
-        <v>551</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>21</v>
       </c>
       <c r="B445">
-        <v>552</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>21</v>
       </c>
       <c r="B446">
-        <v>553</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3962,7 @@
         <v>21</v>
       </c>
       <c r="B447">
-        <v>554</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
         <v>21</v>
       </c>
       <c r="B448">
-        <v>555</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
         <v>21</v>
       </c>
       <c r="B449">
-        <v>556</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>21</v>
       </c>
       <c r="B450">
-        <v>557</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="B451">
-        <v>558</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>21</v>
       </c>
       <c r="B452">
-        <v>559</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>21</v>
       </c>
       <c r="B453">
-        <v>560</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>21</v>
       </c>
       <c r="B454">
-        <v>561</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="B455">
-        <v>562</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>21</v>
       </c>
       <c r="B456">
-        <v>563</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>21</v>
       </c>
       <c r="B457">
-        <v>564</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>21</v>
       </c>
       <c r="B458">
-        <v>565</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>21</v>
       </c>
       <c r="B459">
-        <v>566</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>21</v>
       </c>
       <c r="B460">
-        <v>567</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4074,7 @@
         <v>21</v>
       </c>
       <c r="B461">
-        <v>568</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
         <v>21</v>
       </c>
       <c r="B462">
-        <v>569</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>21</v>
       </c>
       <c r="B463">
-        <v>570</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
         <v>21</v>
       </c>
       <c r="B464">
-        <v>571</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
         <v>21</v>
       </c>
       <c r="B465">
-        <v>572</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>21</v>
       </c>
       <c r="B466">
-        <v>573</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>21</v>
       </c>
       <c r="B467">
-        <v>574</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="B468">
-        <v>575</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="B469">
-        <v>576</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>21</v>
       </c>
       <c r="B470">
-        <v>577</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>21</v>
       </c>
       <c r="B471">
-        <v>578</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="B472">
-        <v>579</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,7 +4170,31 @@
         <v>21</v>
       </c>
       <c r="B473">
-        <v>580</v>
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>12</v>
+      </c>
+      <c r="B474">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>13</v>
+      </c>
+      <c r="B475">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>14</v>
+      </c>
+      <c r="B476">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
